--- a/regionseng/3/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/3/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P13"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,7 +526,7 @@
     <col min="2" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32.25" customHeight="1">
+    <row r="1" spans="1:18" ht="32.25" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -544,14 +544,14 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="10.5" customHeight="1">
+    <row r="2" spans="1:18" ht="10.5" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="15">
         <v>2006</v>
@@ -598,8 +598,14 @@
       <c r="P3" s="15">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="15">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -648,8 +654,14 @@
       <c r="P4" s="6">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="6">
+        <v>46</v>
+      </c>
+      <c r="R4" s="6">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -698,8 +710,14 @@
       <c r="P5" s="7">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="7">
+        <v>46</v>
+      </c>
+      <c r="R5" s="7">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -748,8 +766,14 @@
       <c r="P6" s="8">
         <v>1216</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="8">
+        <v>1221</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1228.0999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
@@ -798,8 +822,14 @@
       <c r="P7" s="8">
         <v>1051</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="8">
+        <v>1103</v>
+      </c>
+      <c r="R7" s="8">
+        <v>951.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -848,8 +878,14 @@
       <c r="P8" s="9">
         <v>646.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="9">
+        <v>693</v>
+      </c>
+      <c r="R8" s="9">
+        <v>926.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -898,8 +934,14 @@
       <c r="P9" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="9">
+        <v>28.2</v>
+      </c>
+      <c r="R9" s="9">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -948,8 +990,14 @@
       <c r="P10" s="7">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="R10" s="7">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -998,8 +1046,14 @@
       <c r="P11" s="7">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="R11" s="7">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1048,8 +1102,14 @@
       <c r="P12" s="10">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -1098,8 +1158,14 @@
       <c r="P13" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="9">
+        <v>28</v>
+      </c>
+      <c r="R13" s="9">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1148,11 +1214,17 @@
       <c r="P14" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>

--- a/regionseng/3/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/3/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="S3" sqref="S3:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,7 +526,7 @@
     <col min="2" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -544,14 +544,14 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:18" ht="10.5" customHeight="1">
+    <row r="2" spans="1:19" ht="10.5" customHeight="1">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="15">
         <v>2006</v>
@@ -604,8 +604,11 @@
       <c r="R3" s="15">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -660,8 +663,11 @@
       <c r="R4" s="6">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="6">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -716,8 +722,11 @@
       <c r="R5" s="7">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="7">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -772,8 +781,11 @@
       <c r="R6" s="8">
         <v>1228.0999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="8">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
@@ -828,8 +840,11 @@
       <c r="R7" s="8">
         <v>951.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="8">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -884,8 +899,11 @@
       <c r="R8" s="9">
         <v>926.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="9">
+        <v>976.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
@@ -940,8 +958,11 @@
       <c r="R9" s="9">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="9">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -996,8 +1017,11 @@
       <c r="R10" s="7">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="7">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -1052,8 +1076,11 @@
       <c r="R11" s="7">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="7">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1108,8 +1135,11 @@
       <c r="R12" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -1164,8 +1194,11 @@
       <c r="R13" s="9">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="9">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1220,11 +1253,14 @@
       <c r="R14" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
